--- a/ModelComparison/RxnList.xlsx
+++ b/ModelComparison/RxnList.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/Energy_metabolism_model/ModelComparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667441CD-BAC9-5042-9B2A-B09F238C509A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8AFAF-BDF8-CE42-BAE2-C4D6CDDD64CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="17660" windowHeight="21140" activeTab="1" xr2:uid="{EB963A9D-06B6-F849-99D1-72BA1B6A9F4A}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="17660" windowHeight="21140" xr2:uid="{EB963A9D-06B6-F849-99D1-72BA1B6A9F4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ecoli" sheetId="2" r:id="rId1"/>
-    <sheet name="Yeast" sheetId="1" r:id="rId2"/>
+    <sheet name="Yeast" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>FBA</t>
   </si>
@@ -134,60 +133,6 @@
   </si>
   <si>
     <t>TPI</t>
-  </si>
-  <si>
-    <t>GLCptspp</t>
-  </si>
-  <si>
-    <t>PDH</t>
-  </si>
-  <si>
-    <t>ATPS4rpp</t>
-  </si>
-  <si>
-    <t>CYTBO34pp</t>
-  </si>
-  <si>
-    <t>NADH16pp</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>ACONTa</t>
-  </si>
-  <si>
-    <t>ACONTb</t>
-  </si>
-  <si>
-    <t>ICDHyr</t>
-  </si>
-  <si>
-    <t>AKGDH</t>
-  </si>
-  <si>
-    <t>SUCOAS</t>
-  </si>
-  <si>
-    <t>FUM</t>
-  </si>
-  <si>
-    <t>MDH</t>
-  </si>
-  <si>
-    <t>SUCDi</t>
-  </si>
-  <si>
-    <t>NADTRHD</t>
-  </si>
-  <si>
-    <t>ACKr</t>
-  </si>
-  <si>
-    <t>ACt2rpp</t>
-  </si>
-  <si>
-    <t>PTAr</t>
   </si>
   <si>
     <t>r_1166</t>
@@ -682,242 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8249E073-17E2-2842-B4DB-D1F4373F85F8}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E95603A-AE5C-3C49-AEB6-1CDC7F96DD10}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -941,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,7 +721,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1029,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1051,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1062,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1095,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1128,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1150,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1183,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1194,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1205,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1227,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,7 +1040,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,7 +1106,7 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1403,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1414,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1436,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1447,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
